--- a/result/reg/2023_solo_30s_ratio.xlsx
+++ b/result/reg/2023_solo_30s_ratio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,19 +473,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>쇼핑업체수</t>
+          <t>한식음식점</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.08</v>
+        <v>-0.594</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.113</v>
+        <v>-0.644</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>-0.093</v>
+        <v>-0.665</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -504,19 +504,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>대학교</t>
+          <t>미용실</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.096</v>
+        <v>-0.258</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-0.08500000000000001</v>
+        <v>-0.34</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>-0.107</v>
+        <v>-0.409</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -535,36 +535,42 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>대형마트</t>
+          <t>제과점</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.07099999999999999</v>
+        <v>-0.365</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>+</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.073</v>
+        <v>-0.334</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.298</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>지가변동률</t>
+          <t>쇼핑업체수</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.22</v>
+        <v>-0.163</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -572,7 +578,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.234</v>
+        <v>-0.171</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -580,7 +586,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.185</v>
+        <v>-0.135</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -591,11 +597,11 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>양식음식점</t>
+          <t>치킨전문점</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08400000000000001</v>
+        <v>-0.205</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -603,11 +609,11 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.271</v>
+        <v>-0.127</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -616,52 +622,52 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>사업체수</t>
+          <t>종사자수</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.282</v>
+        <v>-0.092</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>+</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.274</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0.196</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>애완동물</t>
+          <t>대학교</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.254</v>
+        <v>-0.078</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="D8" t="n">
+        <v>-0.082</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F8" t="n">
-        <v>-0.235</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -672,46 +678,52 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>일식음식점</t>
+          <t>대형마트</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.273</v>
+        <v>0.083</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>0.385</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
+      <c r="D9" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>치킨전문점</t>
+          <t>호프-간이주점</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.28</v>
+        <v>0.119</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.128</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F10" t="n">
-        <v>-0.246</v>
+        <v>0.129</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -722,21 +734,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>편의점</t>
+          <t>양식음식점</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.549</v>
+        <v>0.171</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
           <t>+</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
       <c r="F11" t="n">
-        <v>0.291</v>
+        <v>0.166</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -747,106 +765,166 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>네일숍</t>
+          <t>지가변동률</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>0.263</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>미용실</t>
+          <t>사업체수</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.189</v>
+        <v>0.354</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.359</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>분식전문점</t>
+          <t>네일숍</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.077</v>
+        <v>0.414</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>한식음식점</t>
+          <t>편의점</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.295</v>
+        <v>0.504</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>중식음식점</t>
+          <t>일식음식점</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.003</v>
+        <v>0.457</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.498</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>커피-음료</t>
+          <t>애완동물</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.016</v>
+        <v>-0.064</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -861,11 +939,11 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>패스트푸드점</t>
+          <t>분식전문점</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.139</v>
+        <v>-0.007</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -880,11 +958,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>제과점</t>
+          <t>중식음식점</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.161</v>
+        <v>-0.01</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -899,11 +977,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>호프-간이주점</t>
+          <t>커피-음료</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.145</v>
+        <v>-0.056</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -918,11 +996,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>슈퍼마켓</t>
+          <t>패스트푸드점</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.058</v>
+        <v>0.107</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -937,11 +1015,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>지가</t>
+          <t>슈퍼마켓</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.039</v>
+        <v>-0.022</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -956,11 +1034,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>종사자수</t>
+          <t>지가</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1</v>
+        <v>-0.002</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -979,7 +1057,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.037</v>
+        <v>-0.048</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -991,25 +1069,6 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>월평균소득</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.037</v>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
